--- a/Clase 1/CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW 413.xlsx
+++ b/Clase 1/CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW 413.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\UTN\2018\UTN\I cuatrimestre\Grupo Viernes\Aplica_db_viernes_1_2017\Clase 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\UTN\2018\UTN\I cuatrimestre\Aplica_db_martes_1_2018\Clase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>Semana</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>26 al 31 marzo</t>
+  </si>
+  <si>
+    <t>CRONOGRAMA APLICACIÓN DE BASES DE DATOS ISW-413</t>
   </si>
 </sst>
 </file>
@@ -423,6 +426,30 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,30 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,7 +812,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -837,424 +840,411 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="20">
         <v>43116</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="20">
         <v>43123</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="20">
         <v>43130</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="20">
         <v>43137</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="20">
         <v>43144</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="16">
         <v>43151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="20">
         <v>43158</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="20">
         <v>43165</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="20">
         <v>43172</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="20">
         <v>43179</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="20">
         <v>43193</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="16">
         <v>43200</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="16">
         <v>43207</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="16">
         <v>43214</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="C30:C39"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A40:A41"/>
@@ -1263,6 +1253,19 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1303,206 +1306,206 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="24">
         <v>43119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="24">
         <v>43126</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="24">
         <v>43133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="26">
         <v>43140</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="26">
         <v>43147</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -1516,132 +1519,132 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="24">
         <v>43161</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="24">
         <v>43168</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="24">
         <v>43175</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="24">
         <v>43182</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -1655,22 +1658,22 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="24">
         <v>43196</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -1708,16 +1711,6 @@
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="C43:C44"/>
@@ -1729,6 +1722,16 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="C15:C21"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
